--- a/Control_Vehicle_Velocity/test_case2.xlsx
+++ b/Control_Vehicle_Velocity/test_case2.xlsx
@@ -681,7 +681,7 @@
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,505 +716,808 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>7</v>
       </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>8</v>
       </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>9</v>
       </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>10</v>
       </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>13</v>
       </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>17</v>
       </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>18</v>
       </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>105</v>
+      </c>
+      <c r="D102" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Control_Vehicle_Velocity/test_case2.xlsx
+++ b/Control_Vehicle_Velocity/test_case2.xlsx
@@ -681,7 +681,7 @@
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="D2" sqref="D2:D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,808 +716,505 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>23</v>
       </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>24</v>
       </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>25</v>
       </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>26</v>
       </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>28</v>
       </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>29</v>
       </c>
-      <c r="D26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>30</v>
       </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>31</v>
       </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>32</v>
       </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>33</v>
       </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>34</v>
       </c>
-      <c r="D31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>35</v>
       </c>
-      <c r="D32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>36</v>
       </c>
-      <c r="D33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>37</v>
       </c>
-      <c r="D34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>38</v>
       </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>39</v>
       </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>40</v>
       </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>41</v>
       </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>42</v>
       </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>43</v>
       </c>
-      <c r="D40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>44</v>
       </c>
-      <c r="D41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>45</v>
       </c>
-      <c r="D42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>46</v>
       </c>
-      <c r="D43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>47</v>
       </c>
-      <c r="D44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>48</v>
       </c>
-      <c r="D45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>49</v>
       </c>
-      <c r="D46" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>50</v>
       </c>
-      <c r="D47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>51</v>
       </c>
-      <c r="D48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>52</v>
       </c>
-      <c r="D49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>53</v>
       </c>
-      <c r="D50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>54</v>
       </c>
-      <c r="D51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>55</v>
       </c>
-      <c r="D52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>56</v>
       </c>
-      <c r="D53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>57</v>
       </c>
-      <c r="D54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>58</v>
       </c>
-      <c r="D55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>59</v>
       </c>
-      <c r="D56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>60</v>
       </c>
-      <c r="D57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>61</v>
       </c>
-      <c r="D58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>62</v>
       </c>
-      <c r="D59" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>63</v>
       </c>
-      <c r="D60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>64</v>
       </c>
-      <c r="D61" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>65</v>
       </c>
-      <c r="D62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>66</v>
       </c>
-      <c r="D63" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>67</v>
       </c>
-      <c r="D64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>68</v>
       </c>
-      <c r="D65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>69</v>
       </c>
-      <c r="D66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>70</v>
       </c>
-      <c r="D67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>71</v>
       </c>
-      <c r="D68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>72</v>
       </c>
-      <c r="D69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>73</v>
       </c>
-      <c r="D70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>74</v>
       </c>
-      <c r="D71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>75</v>
       </c>
-      <c r="D72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>76</v>
       </c>
-      <c r="D73" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>77</v>
       </c>
-      <c r="D74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>78</v>
       </c>
-      <c r="D75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>79</v>
       </c>
-      <c r="D76" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>80</v>
       </c>
-      <c r="D77" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>81</v>
       </c>
-      <c r="D78" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>82</v>
       </c>
-      <c r="D79" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>83</v>
       </c>
-      <c r="D80" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>84</v>
       </c>
-      <c r="D81" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>85</v>
       </c>
-      <c r="D82" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>86</v>
       </c>
-      <c r="D83" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>87</v>
       </c>
-      <c r="D84" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>88</v>
       </c>
-      <c r="D85" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>89</v>
       </c>
-      <c r="D86" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>90</v>
       </c>
-      <c r="D87" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>91</v>
       </c>
-      <c r="D88" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>92</v>
       </c>
-      <c r="D89" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>93</v>
       </c>
-      <c r="D90" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>94</v>
       </c>
-      <c r="D91" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>95</v>
       </c>
-      <c r="D92" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>96</v>
       </c>
-      <c r="D93" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>97</v>
       </c>
-      <c r="D94" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>98</v>
       </c>
-      <c r="D95" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>99</v>
       </c>
-      <c r="D96" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>100</v>
       </c>
-      <c r="D97" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>101</v>
       </c>
-      <c r="D98" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>102</v>
       </c>
-      <c r="D99" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>103</v>
       </c>
-      <c r="D100" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>104</v>
       </c>
-      <c r="D101" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>105</v>
-      </c>
-      <c r="D102" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
